--- a/excel/20190718-20190117.xlsx
+++ b/excel/20190718-20190117.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,15 +66,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -90,7 +90,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,7 +99,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -143,21 +150,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -485,41 +492,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="9" max="9" width="10.83203125" style="8"/>
+    <col min="9" max="9" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -541,7 +549,7 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -570,7 +578,7 @@
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -599,7 +607,7 @@
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -628,7 +636,7 @@
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
@@ -657,7 +665,7 @@
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
@@ -686,7 +694,7 @@
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
@@ -715,7 +723,7 @@
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -744,7 +752,7 @@
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
@@ -773,7 +781,7 @@
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
@@ -802,7 +810,7 @@
       <c r="H12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
@@ -831,9 +839,219 @@
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1">
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" customHeight="1">
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="9:9" ht="24" customHeight="1">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="9:9" ht="24" customHeight="1">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="9:9" ht="24" customHeight="1">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="9:9" ht="24" customHeight="1">
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="9:9" ht="24" customHeight="1">
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="9:9" ht="24" customHeight="1">
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="9:9" ht="24" customHeight="1">
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="9:9" ht="24" customHeight="1">
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="9:9" ht="24" customHeight="1">
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="9:9" ht="24" customHeight="1">
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="9:9" ht="24" customHeight="1">
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="9:9" ht="24" customHeight="1">
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="9:9" ht="24" customHeight="1">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="9:9" ht="24" customHeight="1">
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="9:9" ht="24" customHeight="1">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="9:9" ht="24" customHeight="1">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="9:9" ht="24" customHeight="1">
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="9:9" ht="24" customHeight="1">
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="9:9" ht="24" customHeight="1">
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="9:9" ht="24" customHeight="1">
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="9:9" ht="24" customHeight="1">
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="9:9" ht="24" customHeight="1">
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="9:9" ht="24" customHeight="1">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="9:9" ht="24" customHeight="1">
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="9:9" ht="24" customHeight="1">
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="9:9" ht="24" customHeight="1">
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="9:9" ht="24" customHeight="1">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="9:9" ht="24" customHeight="1">
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="9:9" ht="24" customHeight="1">
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="9:9" ht="24" customHeight="1">
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="9:9" ht="24" customHeight="1">
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="9:9" ht="24" customHeight="1">
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="9:9" ht="24" customHeight="1">
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="9:9" ht="24" customHeight="1">
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="9:9" ht="24" customHeight="1">
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="9:9" ht="24" customHeight="1">
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="9:9" ht="24" customHeight="1">
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="9:9" ht="24" customHeight="1">
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="9:9" ht="24" customHeight="1">
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="9:9" ht="24" customHeight="1">
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="9:9" ht="24" customHeight="1">
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="9:9" ht="24" customHeight="1">
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="9:9" ht="24" customHeight="1">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="9:9" ht="24" customHeight="1">
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="9:9" ht="24" customHeight="1">
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="9:9" ht="24" customHeight="1">
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="9:9" ht="24" customHeight="1">
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="9:9" ht="24" customHeight="1">
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="9:9" ht="24" customHeight="1">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="9:9" ht="24" customHeight="1">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="9:9" ht="24" customHeight="1">
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="9:9" ht="24" customHeight="1">
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="9:9" ht="24" customHeight="1">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="9:9" ht="24" customHeight="1">
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="9:9" ht="24" customHeight="1">
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="9:9" ht="24" customHeight="1">
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="9:9" ht="24" customHeight="1">
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="9:9" ht="24" customHeight="1">
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="9:9" ht="24" customHeight="1">
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="9:9" ht="24" customHeight="1">
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="9:9" ht="24" customHeight="1">
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="9:9" ht="24" customHeight="1">
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="9:9" ht="24" customHeight="1">
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="9:9" ht="24" customHeight="1">
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="9:9" ht="24" customHeight="1">
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="9:9" ht="24" customHeight="1">
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="9:9" ht="24" customHeight="1">
+      <c r="I83"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -842,6 +1060,7 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
